--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_worksheet_demonstrate_basics.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_worksheet_demonstrate_basics.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R09f889cc27da46d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R11ff45dbf8c14386"/>
   </x:sheets>
 </x:workbook>
 </file>
